--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A42795-C8ED-DB46-8B75-18EE0EB854D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70F823-15AA-48BB-8597-518BEACC54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="11260" windowWidth="21740" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>DBName</t>
   </si>
   <si>
-    <t>ET1</t>
-  </si>
-  <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +80,10 @@
   </si>
   <si>
     <t>路由区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroBeta1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,24 +507,24 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -532,73 +533,73 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>8</v>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/StartConfig/Localhost/StartZoneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70F823-15AA-48BB-8597-518BEACC54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0C302D-664E-4AE8-8BDC-A1416B0A9628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2748" yWindow="4248" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>DBConnection</t>
   </si>
@@ -52,38 +52,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>数据库地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroBeta1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>mongodb://127.0.0.1</t>
-  </si>
-  <si>
-    <t>数据库地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZeroBeta1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZeroBetaAccount</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -533,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -562,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -599,7 +608,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
